--- a/MILLENIUM-24-03-2025.xlsx
+++ b/MILLENIUM-24-03-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E1870E-B5C3-426E-8C5C-9AF823DD005F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14D9E6-8628-4510-804E-EFC9BA54CCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E943FF41-2782-4894-A4BB-23434CCB61D1}"/>
   </bookViews>

--- a/MILLENIUM-24-03-2025.xlsx
+++ b/MILLENIUM-24-03-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14D9E6-8628-4510-804E-EFC9BA54CCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B868E10-439C-459B-9B8F-F321DFD94C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E943FF41-2782-4894-A4BB-23434CCB61D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E943FF41-2782-4894-A4BB-23434CCB61D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -134,6 +134,66 @@
   </si>
   <si>
     <t>CONTRATO RESCINDIDO / ADITIVO 112.700,00 / RAZIA PARA MAGNOLIA</t>
+  </si>
+  <si>
+    <t>contrato</t>
+  </si>
+  <si>
+    <t>poço</t>
+  </si>
+  <si>
+    <t>situacao</t>
+  </si>
+  <si>
+    <t>TOSCANA</t>
+  </si>
+  <si>
+    <t>BURITI</t>
+  </si>
+  <si>
+    <t>ALMOXARIFADO</t>
+  </si>
+  <si>
+    <t>MARAJA</t>
+  </si>
+  <si>
+    <t>PRIMAVERA</t>
+  </si>
+  <si>
+    <t>RESISTENCIA</t>
+  </si>
+  <si>
+    <t>RAZIA</t>
+  </si>
+  <si>
+    <t>VALE ENCANTADO - CARIMA</t>
+  </si>
+  <si>
+    <t>ALTO DA FE</t>
+  </si>
+  <si>
+    <t>BANANAL</t>
+  </si>
+  <si>
+    <t>CABECEIRA DO ALMOCO</t>
+  </si>
+  <si>
+    <t>AGUA FRIA</t>
+  </si>
+  <si>
+    <t>PINGUELA</t>
+  </si>
+  <si>
+    <t>funcionando / normal</t>
+  </si>
+  <si>
+    <t>(tropical) falta subestacao / eletrica</t>
+  </si>
+  <si>
+    <t>sinistro bomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funcionando   </t>
   </si>
 </sst>
 </file>
@@ -555,8 +615,8 @@
   </sheetPr>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,12 +933,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F935CD1-430A-4BDD-BAF8-80DE2D323204}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/MILLENIUM-24-03-2025.xlsx
+++ b/MILLENIUM-24-03-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B868E10-439C-459B-9B8F-F321DFD94C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF20F48-2DC4-46DD-BB85-4DAAFC6D25B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E943FF41-2782-4894-A4BB-23434CCB61D1}"/>
   </bookViews>
@@ -616,7 +616,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D28"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +936,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +992,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -1075,5 +1075,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>